--- a/data/Dialog/dialog.xlsx
+++ b/data/Dialog/dialog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="577">
   <si>
     <t>id</t>
   </si>
@@ -2896,7 +2896,15 @@
     <t>fairy_raina</t>
   </si>
   <si>
-    <t/>
+    <t>Tui là Raina đó! Coi chừng, đụng bậy bạ là tui chích cho tê người đó nha!
+Ara, anh bạn nhà thám hiểm. Cần gì ở tui à?
+Mối quan hệ với Poina ư? Ừm~ Chắc chỉ là đồng bọn chuyên đi phá phách thôi? Nhưng mà nói gì thì nói, tụi tui cũng đã phiêu lưu cùng nhau một thời gian dài rồi đó.
+Tui không có ghét Nanasu đâu nha? Chỉ là... tui muốn trêu nhỏ một chút rồi biến nó thành cà tím nướng thôi! Kyahaha!
+Lần đầu tiên ba đứa tui, Poina và Nanasu đi thám hiểm cùng nhau, Nanasu đã làm một quả siêu hậu đậu suýt chết luôn đó... Cũng may nhờ tui nhanh trí cứu nguy kịp, chứ thiệt tình...
+Hồi giành lại cái túi thì tui với Nanasu hành động riêng, nhưng thỉnh thoảng tui cũng đi thám hiểm cùng nhỏ đó. Mà, chủ yếu là để nó làm mồi nhử thôi! Kyahaha!
+Dạo này, mấy tiên nữ của Specwing, kể cả tui nữa, bắt đầu đi thám hiểm nhiều hơn. Ừm, có thêm đối thủ cũng không tệ chút nào!
+Tiên nữ Cà Tím Xanh, người được cho là sáng lập Specwing á...? À, bà cô đó... Hồi xưa tui cũng từng được bả huấn luyện, nhưng chưa thắng nổi một trận nào luôn!
+Tui đã định bụng là một ngày nào đó sẽ phục thù Tiên nữ Cà Tím Xanh, nhưng chưa kịp làm gì thì bả đã biến đi đâu mất! ...Cảm giác như bị bả thắng rồi chạy làng vậy, tức không chịu được!</t>
   </si>
   <si>
     <t>アタシはライナ！迂闊に触れると痺れさせちゃうよっ！
@@ -2924,6 +2932,18 @@
   </si>
   <si>
     <t>fairy_poina</t>
+  </si>
+  <si>
+    <t>Ta là Poina. Nói chuyện thừa thãi là ta cho ăn độc đấy.
+...Gì đây? Có việc gì à?
+Raina đôi khi quá coi nhẹ trận chiến. Phải nói bao nhiêu lần nó mới hiểu phiêu lưu không phải trò đùa đây, đúng là con ngốc...
+Nanasu thì quá mềm yếu. Nhỏ đó cứ nói coi trọng sự gắn kết, nhưng chỉ có thế thôi thì sớm muộn cũng có ngày bị gạt chân cho xem...
+Ta quen Raina lâu rồi, nhưng cũng chỉ xem nó như bạn phá phách thôi. Dù vậy, đi thám hiểm cùng nó cũng không tệ.
+Ta thích đánh úp hơn, nhưng Raina toàn cứ thế xông thẳng vào, thành ra lại tốn sức vô ích... Đúng là đồ ngốc...
+Ngươi có nghe Raina kể về chuyến thám hiểm đầu tiên cùng Nanasu chưa? Hồi đó, Nanasu đã khóc lóc vì nghĩ mình đã đẩy mọi người vào chỗ nguy hiểm đấy, ha.
+...Hồi xưa, có lần ta làm mất đồ, Nanasu đã cuống cuồng đi tìm giúp. Trong khi bình thường toàn là ta đi trêu chọc nó... Đồ ngốc...
+Ngày xưa, ta cùng với Nanasu và Raina đã được Tiên nữ Cà Tím Xanh huấn luyện. Nhưng đòn tấn công độc của ta gần như chẳng có tác dụng gì với bả.
+Liệu cả ba đứa ta, Raina, và Nanasu của hiện tại có thể thắng được Tiên nữ Cà Tím Xanh không nhỉ? Nhưng mà bả đã đi đâu đó lâu lắm rồi...</t>
   </si>
   <si>
     <t>私はポイナ、余計な事言うと毒を喰らわせるからな。
@@ -3077,9 +3097,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3087,6 +3104,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3322,7 +3342,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.14"/>
-    <col customWidth="1" min="2" max="2" width="42.57"/>
+    <col customWidth="1" min="2" max="2" width="10.43"/>
     <col customWidth="1" min="3" max="3" width="95.57"/>
     <col customWidth="1" min="4" max="4" width="86.29"/>
     <col customWidth="1" min="5" max="6" width="14.43"/>
@@ -9974,7 +9994,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.57"/>
-    <col customWidth="1" min="2" max="2" width="50.71"/>
+    <col customWidth="1" min="2" max="2" width="44.29"/>
     <col customWidth="1" min="3" max="3" width="117.57"/>
     <col customWidth="1" min="4" max="4" width="122.71"/>
     <col customWidth="1" min="5" max="26" width="11.57"/>
@@ -16165,7 +16185,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="13.57"/>
+    <col customWidth="1" min="2" max="2" width="38.71"/>
     <col customWidth="1" min="3" max="3" width="109.14"/>
     <col customWidth="1" min="4" max="4" width="123.0"/>
     <col customWidth="1" min="5" max="26" width="11.57"/>
@@ -22307,7 +22327,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="10.57"/>
+    <col customWidth="1" min="2" max="2" width="34.71"/>
     <col customWidth="1" min="3" max="3" width="111.0"/>
     <col customWidth="1" min="4" max="4" width="100.57"/>
     <col customWidth="1" min="5" max="26" width="11.57"/>
@@ -22349,7 +22369,7 @@
       <c r="A5" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>423</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22363,7 +22383,7 @@
       <c r="A6" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>427</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -22607,7 +22627,7 @@
       <c r="C23" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>497</v>
       </c>
     </row>
@@ -22632,7 +22652,7 @@
       <c r="B25" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>504</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -22654,7 +22674,7 @@
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>510</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -22668,13 +22688,13 @@
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>513</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>515</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -22682,13 +22702,13 @@
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>517</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>519</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -22808,7 +22828,7 @@
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>553</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -22822,7 +22842,7 @@
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>557</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -22836,7 +22856,7 @@
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>561</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -22850,10 +22870,10 @@
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="13" t="s">
         <v>566</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -22864,31 +22884,31 @@
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>566</v>
+      <c r="B42" s="13" t="s">
+        <v>570</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>572</v>
+      <c r="A43" s="10" t="s">
+        <v>573</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">

--- a/data/Dialog/dialog.xlsx
+++ b/data/Dialog/dialog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="593">
   <si>
     <t>id</t>
   </si>
@@ -1869,6 +1869,96 @@
 Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
   </si>
   <si>
+    <t>namamani</t>
+  </si>
+  <si>
+    <t>Đây là nơi nào?</t>
+  </si>
+  <si>
+    <t>なんだこの場所は？</t>
+  </si>
+  <si>
+    <t>What is this place?</t>
+  </si>
+  <si>
+    <t>namamani2</t>
+  </si>
+  <si>
+    <t>Lạ thật... Tôi không thể nhớ bất cứ điều gì.</t>
+  </si>
+  <si>
+    <t>おかしい、何も思い出せない。</t>
+  </si>
+  <si>
+    <t>Strange... I can't remember anything.</t>
+  </si>
+  <si>
+    <t>keeper_garden</t>
+  </si>
+  <si>
+    <t>"Tanelorn? À, ta có nghe ai đó gọi nơi này bằng cái tên đó rồi." 
+"Sao thế? Ngươi cũng muốn được ta cưng chiều à?" 
+"Thời gian ở đây chẳng có ý nghĩa gì sất." 
+"Ồ? Ngươi là lữ khách, hay kẻ lạc lối, hay là một tên ngốc lang thang đến đây mà còn không biết đây là đâu?" 
+"Cứ đi đâu tùy ngươi. Dù đi đâu thì cũng chỉ có cảnh vật y hệt vậy thôi." 
+"Muwohoho... lại còn chào hỏi ta, đúng là một kẻ lễ phép."</t>
+  </si>
+  <si>
+    <t>タネローン？ ああ、誰かが庭をそう呼ぶのを聞いたことがあるな。
+なんじゃ、ぬしもわっちに可愛がられたい口か？ 
+時などここでは何の意味も持たぬのじゃ。
+ほう、旅人か、迷子か、それとも、 ここがどこかも知らずに歩いてきた愚か者か。
+好きに歩け。どこへ行っても、同じ景色じゃ。 
+フホホホ、わっちに挨拶とは律儀なやつじゃ。</t>
+  </si>
+  <si>
+    <t>Tanelorn? Ah, I’ve heard someone call this place by that name before.
+What is it? Do you wish to be doted on by me as well?
+Time holds no meaning here.
+Oh? A traveler, a lost one, or perhaps just a fool wandering without knowing where you’ve come?
+Walk wherever you please. Every path leads to the same view.
+Muwohoho... how courteous of you to greet me, mortal.</t>
+  </si>
+  <si>
+    <t>erishe</t>
+  </si>
+  <si>
+    <t>"Hì hì, anh ơi, anh đi đâu rồi?" 
+"Chào bạn, lữ khách. Xin cứ tự nhiên nghỉ ngơi ở đây." 
+"Nơi này thật là bình yên. Ở đây cứ như là khiến người ta quên mất cả thời gian vậy..." 
+"Tôi bị lạc anh trai trên đường đi xem kịch. Không biết đã có chuyện gì xảy ra nhỉ?" 
+"Cả anh trai tôi và tôi đều không thực sự hứng thú với kịch nghệ. Nhưng ở Zanan, đó được coi là một phần tu dưỡng của quý tộc." 
+"Bạn có biết không...? Ở Altheheit có tiên tộc đấy." 
+"Anh ấy trông vậy thôi, chứ không có tôi là vô dụng lắm, hì hì." 
+"Anh Loyter, hình như có lần ảnh ném đá ở phòng hòa nhạc nên bị cấm cửa luôn thì phải." 
+"Mỗi khi tôi mang quà đến, anh Loyter lại đỏ mặt như một cậu con trai mới lớn vậy đó." 
+"Loytel...? Không, tôi không nghĩ vậy, nhưng tôi có biết anh Loyter..."</t>
+  </si>
+  <si>
+    <t>ふふ、兄さん、どこにいったの？
+こんにちは、旅の人。ゆっくりしていってください。
+とても平和な場所です。ここにいると、まるで時間を忘れてしまうようで…
+お芝居を見に行く途中で、兄さんとはぐれてしまって。何が起こったのでしょう？
+兄さんも私も、お芝居にはあまり興味はないんです。でも、ザナンでは貴族のたしなみですから。
+知っていましたか…？ アルティハイトには妖精がいるんですよ？
+ああ見えても、兄さんは私がいないとだらしないんですよ、ふふ。
+ロイターさんは、演奏会場で石を投げて、出入り禁止になったことがあるようですね。
+差し入れを持っていくと、ロイターさんったら、いまだに少年みたいに照れるんですよ。
+ロイテル…？ いえ、ロイターさんなら知ってますけど…</t>
+  </si>
+  <si>
+    <t>Hehe, brother, where did you go?
+Hello, traveler. Please, take your time and rest here.
+This is such a peaceful place. Being here almost makes you forget about time itself...
+I got separated from my brother on the way to the play. I wonder what happened?
+Neither of us is really interested in theater, but in Zanan, it’s considered part of a noble’s education.
+Did you know? …There are fairies in Altheheit, you know.
+Even though he doesn’t look it, my brother is hopeless without me, hehe.
+Loyter once threw a stone at a concert hall and got himself banned from entering.
+Whenever I bring Loyter a little gift, he still blushes like a boy.
+Loytel...? I don’t think so, though I do know Loyter.</t>
+  </si>
+  <si>
     <t>larnneire</t>
   </si>
   <si>
@@ -3036,14 +3126,14 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -3077,7 +3167,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3097,16 +3187,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3342,7 +3435,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.14"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
+    <col customWidth="1" min="2" max="2" width="54.0"/>
     <col customWidth="1" min="3" max="3" width="95.57"/>
     <col customWidth="1" min="4" max="4" width="86.29"/>
     <col customWidth="1" min="5" max="6" width="14.43"/>
@@ -9994,7 +10087,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.57"/>
-    <col customWidth="1" min="2" max="2" width="44.29"/>
+    <col customWidth="1" min="2" max="2" width="10.71"/>
     <col customWidth="1" min="3" max="3" width="117.57"/>
     <col customWidth="1" min="4" max="4" width="122.71"/>
     <col customWidth="1" min="5" max="26" width="11.57"/>
@@ -16185,7 +16278,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="38.71"/>
+    <col customWidth="1" min="2" max="2" width="13.57"/>
     <col customWidth="1" min="3" max="3" width="109.14"/>
     <col customWidth="1" min="4" max="4" width="123.0"/>
     <col customWidth="1" min="5" max="26" width="11.57"/>
@@ -22327,7 +22420,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="34.71"/>
+    <col customWidth="1" min="2" max="2" width="39.0"/>
     <col customWidth="1" min="3" max="3" width="111.0"/>
     <col customWidth="1" min="4" max="4" width="100.57"/>
     <col customWidth="1" min="5" max="26" width="11.57"/>
@@ -22369,13 +22462,13 @@
       <c r="A5" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>423</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -22383,21 +22476,21 @@
       <c r="A6" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>427</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>431</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -22411,7 +22504,7 @@
       <c r="A8" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>435</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -22495,7 +22588,7 @@
       <c r="A14" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>459</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -22515,7 +22608,7 @@
       <c r="C15" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>465</v>
       </c>
     </row>
@@ -22551,7 +22644,7 @@
       <c r="A18" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -22571,7 +22664,7 @@
       <c r="C19" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>481</v>
       </c>
     </row>
@@ -22627,7 +22720,7 @@
       <c r="C23" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>497</v>
       </c>
     </row>
@@ -22652,10 +22745,10 @@
       <c r="B25" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>505</v>
       </c>
     </row>
@@ -22674,7 +22767,7 @@
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -22683,88 +22776,88 @@
       <c r="C27" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>253</v>
+      <c r="D27" s="12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>513</v>
+      <c r="A28" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C28" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>516</v>
       </c>
+      <c r="D28" s="4" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>517</v>
+      <c r="A29" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="D29" s="4" t="s">
         <v>520</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D30" s="5" t="s">
         <v>524</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="10" t="s">
         <v>526</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="C31" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>528</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="14" t="s">
         <v>535</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -22772,16 +22865,16 @@
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>540</v>
       </c>
     </row>
@@ -22800,10 +22893,10 @@
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>546</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -22814,10 +22907,10 @@
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>550</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -22828,13 +22921,13 @@
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>555</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -22842,10 +22935,10 @@
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -22856,7 +22949,7 @@
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -22870,10 +22963,10 @@
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="3" t="s">
         <v>566</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -22887,7 +22980,7 @@
       <c r="A42" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="3" t="s">
         <v>570</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -22912,28 +23005,60 @@
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
